--- a/docs/GPIO.xlsx
+++ b/docs/GPIO.xlsx
@@ -17,99 +17,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>SMIU</t>
+  </si>
   <si>
     <t>Rpi official</t>
   </si>
   <si>
-    <t>Pi4J</t>
+    <t>Pi4J lib</t>
+  </si>
+  <si>
+    <t>In7</t>
+  </si>
+  <si>
+    <t>GPIO 21</t>
+  </si>
+  <si>
+    <t>GPIO_29</t>
+  </si>
+  <si>
+    <t>In8</t>
+  </si>
+  <si>
+    <t>GPIO 08</t>
+  </si>
+  <si>
+    <t>GPIO_10</t>
+  </si>
+  <si>
+    <t>In9</t>
+  </si>
+  <si>
+    <t>GPIO 07</t>
+  </si>
+  <si>
+    <t>GPIO_11</t>
+  </si>
+  <si>
+    <t>In10</t>
+  </si>
+  <si>
+    <t>GPIO 05</t>
+  </si>
+  <si>
+    <t>GPIO_21</t>
+  </si>
+  <si>
+    <t>In11</t>
+  </si>
+  <si>
+    <t>GPIO 12</t>
+  </si>
+  <si>
+    <t>GPIO_26</t>
+  </si>
+  <si>
+    <t>In12</t>
+  </si>
+  <si>
+    <t>GPIO 06</t>
+  </si>
+  <si>
+    <t>GPIO_22</t>
   </si>
   <si>
     <t>In1</t>
   </si>
   <si>
-    <t>GPIO 21</t>
-  </si>
-  <si>
-    <t>GPIO_29</t>
+    <t>GPIO 13</t>
+  </si>
+  <si>
+    <t>GPIO_23</t>
   </si>
   <si>
     <t>In2</t>
   </si>
   <si>
-    <t>GPIO 08</t>
+    <t>GPIO 25</t>
+  </si>
+  <si>
+    <t>GPIO_6</t>
   </si>
   <si>
     <t>In3</t>
   </si>
   <si>
-    <t>GPIO 07</t>
+    <t>GPIO 10</t>
+  </si>
+  <si>
+    <t>GPIO_12</t>
   </si>
   <si>
     <t>In4</t>
   </si>
   <si>
-    <t>GPIO 05</t>
+    <t>GPIO 24</t>
+  </si>
+  <si>
+    <t>GPIO_5</t>
   </si>
   <si>
     <t>In5</t>
   </si>
   <si>
-    <t>GPIO 12</t>
+    <t>GPIO 23</t>
+  </si>
+  <si>
+    <t>GPIO_4</t>
   </si>
   <si>
     <t>In6</t>
   </si>
   <si>
-    <t>GPIO 06</t>
-  </si>
-  <si>
-    <t>In7</t>
-  </si>
-  <si>
-    <t>GPIO 13</t>
-  </si>
-  <si>
-    <t>In8</t>
-  </si>
-  <si>
-    <t>GPIO 25</t>
-  </si>
-  <si>
-    <t>In9</t>
-  </si>
-  <si>
-    <t>GPIO 10</t>
-  </si>
-  <si>
-    <t>In10</t>
-  </si>
-  <si>
-    <t>GPIO 24</t>
-  </si>
-  <si>
-    <t>In11</t>
-  </si>
-  <si>
-    <t>GPIO 23</t>
-  </si>
-  <si>
-    <t>In12</t>
-  </si>
-  <si>
     <t>GPIO 18</t>
   </si>
   <si>
+    <t>GPIO_1</t>
+  </si>
+  <si>
     <t>Out1</t>
   </si>
   <si>
+    <t>GPIO 16</t>
+  </si>
+  <si>
+    <t>GPIO_27</t>
+  </si>
+  <si>
+    <t>Out2</t>
+  </si>
+  <si>
     <t>GPIO 20</t>
   </si>
   <si>
-    <t>Out2</t>
-  </si>
-  <si>
-    <t>GPIO 16</t>
+    <t>GPIO_28</t>
   </si>
 </sst>
 </file>
@@ -119,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,7 +185,15 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,10 +217,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -199,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,8 +258,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -232,7 +290,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -243,128 +301,169 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0"/>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
